--- a/data/kbvreport_export/faktenblatttabellen_2022-05-15.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2022-05-15.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">Geimpfte Personen</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 17.5.</t>
+    <t xml:space="preserve">Stand 20.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">64514733 (77,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64523695 (77,6 %)</t>
+    <t xml:space="preserve">64521041 (77,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64529215 (77,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,0 PP</t>
@@ -57,28 +57,28 @@
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">3741943 ( 4,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3732635 ( 4,5 %)</t>
+    <t xml:space="preserve">3735751 ( 4,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726344 ( 4,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">60772790 (73,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60791060 (73,1 %)</t>
+    <t xml:space="preserve">60785290 (73,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60802871 (73,1 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Zusätzl. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">49434632 (59,4 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49507363 (59,5 %)</t>
+    <t xml:space="preserve">49486873 (59,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49551387 (59,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,1 PP</t>
@@ -87,10 +87,10 @@
     <t xml:space="preserve">Zusätzl. 2. Booster-Impfung</t>
   </si>
   <si>
-    <t xml:space="preserve">4377774 ( 5,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4630640 ( 5,6 %)</t>
+    <t xml:space="preserve">4564730 ( 5,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4786456 ( 5,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">0,3 PP</t>
@@ -114,34 +114,34 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">483424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25,6 %</t>
+    <t xml:space="preserve">483815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in Impfzentren und Betrieben</t>
   </si>
   <si>
-    <t xml:space="preserve">69288 ( 14,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58557 ( 16,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15,5 %</t>
+    <t xml:space="preserve">69679 ( 14,4 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60449 ( 16,7 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,2 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
   </si>
   <si>
-    <t xml:space="preserve">414136 ( 85,7 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301281 ( 83,7 %)</t>
+    <t xml:space="preserve">414136 ( 85,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301281 ( 83,3 %)</t>
   </si>
   <si>
     <t xml:space="preserve">-27,3 %</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">73,1</t>
   </si>
   <si>
-    <t xml:space="preserve">59,5</t>
+    <t xml:space="preserve">59,6</t>
   </si>
   <si>
     <t xml:space="preserve">Baden-Württemberg</t>
@@ -222,13 +222,13 @@
     <t xml:space="preserve">65,2</t>
   </si>
   <si>
-    <t xml:space="preserve">52,8</t>
+    <t xml:space="preserve">52,9</t>
   </si>
   <si>
     <t xml:space="preserve">Bremen</t>
   </si>
   <si>
-    <t xml:space="preserve">90,6</t>
+    <t xml:space="preserve">90,7</t>
   </si>
   <si>
     <t xml:space="preserve">84,7</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">80,6</t>
   </si>
   <si>
-    <t xml:space="preserve">61,6</t>
+    <t xml:space="preserve">61,7</t>
   </si>
   <si>
     <t xml:space="preserve">Hessen</t>
@@ -267,19 +267,19 @@
     <t xml:space="preserve">71,8</t>
   </si>
   <si>
-    <t xml:space="preserve">57,8</t>
+    <t xml:space="preserve">57,9</t>
   </si>
   <si>
     <t xml:space="preserve">Niedersachsen</t>
   </si>
   <si>
-    <t xml:space="preserve">79,6</t>
+    <t xml:space="preserve">79,7</t>
   </si>
   <si>
     <t xml:space="preserve">73,8</t>
   </si>
   <si>
-    <t xml:space="preserve">64,4</t>
+    <t xml:space="preserve">64,5</t>
   </si>
   <si>
     <t xml:space="preserve">Nordrhein-Westfalen</t>
@@ -297,13 +297,13 @@
     <t xml:space="preserve">Rheinland-Pfalz</t>
   </si>
   <si>
-    <t xml:space="preserve">78,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,8</t>
+    <t xml:space="preserve">78,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,9</t>
   </si>
   <si>
     <t xml:space="preserve">Saarland</t>
@@ -339,7 +339,7 @@
     <t xml:space="preserve">69,7</t>
   </si>
   <si>
-    <t xml:space="preserve">54,9</t>
+    <t xml:space="preserve">55,0</t>
   </si>
   <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">66,6</t>
   </si>
   <si>
-    <t xml:space="preserve">51,8</t>
+    <t xml:space="preserve">51,9</t>
   </si>
   <si>
     <t xml:space="preserve">Impfstoffdosen</t>
@@ -372,46 +372,46 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">131933032 (69,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132240688 (69,6 %)</t>
+    <t xml:space="preserve">132157477 (69,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132431210 (69,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">46322297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46329587</t>
+    <t xml:space="preserve">46327421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46334202</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">50832710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50848378</t>
+    <t xml:space="preserve">50843275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50858536</t>
   </si>
   <si>
     <t xml:space="preserve">Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">31274890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31339466</t>
+    <t xml:space="preserve">31320906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31378528</t>
   </si>
   <si>
     <t xml:space="preserve">2. Booster</t>
   </si>
   <si>
-    <t xml:space="preserve">3503135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3723257</t>
+    <t xml:space="preserve">3665875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3859944</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -426,34 +426,34 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">30454864 (16,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30496806 (16,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5108999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5109472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6345394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6346363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18132316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18140275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">868155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900696</t>
+    <t xml:space="preserve">30486013 (16,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30521470 (16,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5109307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5109631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6346090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6346965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18138397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18145167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">892219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">919707</t>
   </si>
   <si>
     <t xml:space="preserve">35662810</t>
@@ -465,22 +465,22 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">12876795 ( 6,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12877196 ( 6,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9336513</t>
+    <t xml:space="preserve">12877177 ( 6,8 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12877585 ( 6,8 %)</t>
   </si>
   <si>
     <t xml:space="preserve">9336830</t>
   </si>
   <si>
-    <t xml:space="preserve">3533432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3533501</t>
+    <t xml:space="preserve">9337143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3533497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3533576</t>
   </si>
   <si>
     <t xml:space="preserve">6178</t>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">672</t>
   </si>
   <si>
-    <t xml:space="preserve">685</t>
+    <t xml:space="preserve">686</t>
   </si>
   <si>
     <t xml:space="preserve">14438230</t>
@@ -501,34 +501,34 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">3720312 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3720756 ( 2,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3686360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3686382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4576</t>
+    <t xml:space="preserve">3720714 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3721037 ( 2,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3686386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3686415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4661</t>
   </si>
   <si>
     <t xml:space="preserve">5381880</t>
@@ -540,34 +540,34 @@
     <t xml:space="preserve">Novavax</t>
   </si>
   <si>
-    <t xml:space="preserve">114926 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117312 ( 0,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1426</t>
+    <t xml:space="preserve">116553 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118627 ( 0,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1458</t>
   </si>
   <si>
     <t xml:space="preserve">1697350</t>
@@ -579,277 +579,274 @@
     <t xml:space="preserve">Testungen</t>
   </si>
   <si>
+    <t xml:space="preserve">KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahl der PCR-Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">827101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">743197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positivrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,21 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40,09 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3,12 PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testkapazität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2749278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auslastung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3 PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-Wert &amp; 7-Tage-Inzidenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproduktionszahl R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Fälle je 100.000 EW in 7 Tagen bezogen auf die jeweilige Gruppe:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon Unter-4-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 5-bis-14-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 15-bis-34-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 35-bis-59-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12,4 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon Über-80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Davon über 80-Jährige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalisierungen</t>
+  </si>
+  <si>
     <t xml:space="preserve">KW 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Zahl der PCR-Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">986930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1013650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive Tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">515818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positivrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52,26 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,98 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9,28 PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testkapazität</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2816598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auslastung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-Wert &amp; 7-Tage-Inzidenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproduktionszahl R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,93</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -7,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Fälle je 100.000 EW in 7 Tagen bezogen auf die jeweilige Gruppe:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon Unter-4-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 5-bis-14-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 15-bis-34-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 35-bis-59-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon 60-bis-79-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-14,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon Über-80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue hospitalisierte Fälle je 100.000 EW in 7 Tagen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,69</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Davon über 80-Jährige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospitalisierungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6963 (0,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6511 (0,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6,5 %</t>
+    <t xml:space="preserve">7009 ( 1,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5782 (1,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon unter 4-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">266 (1,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214 (1,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19,5 %</t>
+    <t xml:space="preserve">222 ( 1,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179 (1,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-19,4 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 5- bis 14-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">120 (0,2%)</t>
+    <t xml:space="preserve">104 ( 0,2%)</t>
   </si>
   <si>
     <t xml:space="preserve">99 (0,2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">-17,5 %</t>
+    <t xml:space="preserve"> -4,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 15- bis 34-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">677 (0,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">657 (0,3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3,0 %</t>
+    <t xml:space="preserve">683 ( 0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">575 (0,3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15,8 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 35- bis 59-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">1155 (0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1152 (0,4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0,3 %</t>
+    <t xml:space="preserve">1219 ( 0,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">952 (0,4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21,9 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon 60- bis 79-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">2201 (2,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 (2,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -8,2 %</t>
+    <t xml:space="preserve">2187 ( 2,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1868 (2,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14,6 %</t>
   </si>
   <si>
     <t xml:space="preserve">Davon über 80-Jährige</t>
   </si>
   <si>
-    <t xml:space="preserve">2544 (9,5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2368 (9,7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6,9 %</t>
+    <t xml:space="preserve">2594 (10,6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2109 (9,8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">Intensivbetten</t>
@@ -878,9 +875,6 @@
 4 %</t>
   </si>
   <si>
-    <t xml:space="preserve">-15,8 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Freie Intensivbetten</t>
   </si>
   <si>
@@ -904,46 +898,46 @@
     <t xml:space="preserve">0 bis 59 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">47 ( 0,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 ( 0,0%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6,4%</t>
+    <t xml:space="preserve">49 ( 0,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 ( 0,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6,1%</t>
   </si>
   <si>
     <t xml:space="preserve">60 bis 79 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">263 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 ( 0,2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34,6%</t>
+    <t xml:space="preserve">275 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 ( 0,2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34,2%</t>
   </si>
   <si>
     <t xml:space="preserve">80 Jahre +</t>
   </si>
   <si>
-    <t xml:space="preserve">686 ( 2,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502 ( 1,9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26,8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">996 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">718 ( 0,1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27,9%</t>
+    <t xml:space="preserve">710 ( 2,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527 ( 2,0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">754 ( 0,1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27,1%</t>
   </si>
   <si>
     <t xml:space="preserve">Übersterblichkeit</t>
@@ -973,9 +967,6 @@
     <t xml:space="preserve">2164 (21,8%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> -6,1%</t>
-  </si>
-  <si>
     <t xml:space="preserve">2185 (11,8%)</t>
   </si>
   <si>
@@ -994,313 +985,283 @@
     <t xml:space="preserve">Inzidenzprojektion</t>
   </si>
   <si>
-    <t xml:space="preserve">31,0 %</t>
+    <t xml:space="preserve">31,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">0,88</t>
   </si>
   <si>
-    <t xml:space="preserve">4,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,6 %</t>
+    <t xml:space="preserve">4,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,83</t>
   </si>
   <si>
     <t xml:space="preserve">3,0</t>
   </si>
   <si>
-    <t xml:space="preserve">11.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wird nicht erreicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,8</t>
+    <t xml:space="preserve">20.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,0 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,8</t>
   </si>
   <si>
     <t xml:space="preserve">16.06.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">28,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,94</t>
+    <t xml:space="preserve">24,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.08.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fälle gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anteil Bevölk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Fälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallsterblichkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Todesfälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Fällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niederlande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,3 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereinigtes Königreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Österreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47,5 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutschland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,1 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,9 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,7 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,6 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,8 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5 %</t>
   </si>
   <si>
     <t xml:space="preserve">1,5</t>
   </si>
   <si>
-    <t xml:space="preserve">26.09.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.10.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.06.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24,4 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.07.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,0 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.05.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fälle gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anteil Bevölk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Fälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallsterblichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anzahl Todesfälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Fällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Fälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Länder nach neuen Todesfällen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todesfälle je 100.000 EW in 14 Tagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niederlande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,3 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Österreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47,2 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutschland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vereinigtes Königreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frankreich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,9 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,7 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33,1 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,6 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30,8 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,5 %</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">28,2 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1,5</t>
+    <t xml:space="preserve">1,0</t>
   </si>
   <si>
     <t xml:space="preserve">25,9 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,4</t>
+    <t xml:space="preserve">0,4</t>
   </si>
   <si>
     <t xml:space="preserve">15,8 %</t>
@@ -1309,7 +1270,7 @@
     <t xml:space="preserve">0,3 %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0,3</t>
+    <t xml:space="preserve">0,3</t>
   </si>
 </sst>
 </file>
@@ -1754,22 +1715,22 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
         <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
@@ -1777,22 +1738,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="n">
+        <v>291</v>
+      </c>
+      <c r="E2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" t="n">
+        <v>489</v>
+      </c>
+      <c r="G2" t="s">
         <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="n">
-        <v>288</v>
-      </c>
-      <c r="E2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484</v>
-      </c>
-      <c r="G2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3">
@@ -1800,22 +1761,22 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" t="n">
+        <v>451</v>
+      </c>
+      <c r="G3" t="s">
         <v>326</v>
-      </c>
-      <c r="C3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" t="n">
-        <v>281</v>
-      </c>
-      <c r="E3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" t="n">
-        <v>447</v>
-      </c>
-      <c r="G3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="4">
@@ -1823,22 +1784,22 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="n">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" t="n">
+        <v>560</v>
+      </c>
+      <c r="G4" t="s">
         <v>329</v>
-      </c>
-      <c r="C4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D4" t="n">
-        <v>342</v>
-      </c>
-      <c r="E4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" t="n">
-        <v>557</v>
-      </c>
-      <c r="G4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -1846,22 +1807,22 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="n">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" t="n">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
         <v>333</v>
-      </c>
-      <c r="C5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" t="n">
-        <v>393</v>
-      </c>
-      <c r="G5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -1869,22 +1830,22 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="n">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" t="n">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
         <v>337</v>
-      </c>
-      <c r="D6" t="n">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F6" t="n">
-        <v>319</v>
-      </c>
-      <c r="G6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="7">
@@ -1892,22 +1853,22 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" t="n">
         <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F7" t="n">
         <v>599</v>
       </c>
       <c r="G7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
@@ -1915,22 +1876,22 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="D8" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F8" t="n">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -1938,22 +1899,22 @@
         <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F9" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10">
@@ -1961,22 +1922,22 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D10" t="n">
         <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -1984,22 +1945,22 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D11" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F11" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
@@ -2007,22 +1968,22 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F12" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13">
@@ -2030,22 +1991,22 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C13" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F13" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
@@ -2053,22 +2014,22 @@
         <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
         <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F14" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G14" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15">
@@ -2076,22 +2037,22 @@
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="F15" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16">
@@ -2099,22 +2060,22 @@
         <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F16" t="n">
         <v>324</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17">
@@ -2122,22 +2083,22 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="D17" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F17" t="n">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="G17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
@@ -2145,22 +2106,22 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D18" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F18" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -2179,354 +2140,354 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" t="s">
         <v>381</v>
-      </c>
-      <c r="B1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C2" t="n">
         <v>8249963</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F2" t="n">
         <v>116207</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H2" t="n">
         <v>2082</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="J2" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C3" t="n">
-        <v>4231050</v>
+        <v>4250291</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F3" t="n">
         <v>165244</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H3" t="n">
         <v>1100</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="J3" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C4" t="n">
         <v>29375134</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F4" t="n">
         <v>105444</v>
       </c>
       <c r="G4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H4" t="n">
         <v>913</v>
       </c>
       <c r="I4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J4" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C5" t="n">
         <v>4066674</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F5" t="n">
         <v>177905</v>
       </c>
       <c r="G5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="H5" t="n">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="I5" t="s">
+        <v>392</v>
+      </c>
+      <c r="J5" t="s">
         <v>399</v>
-      </c>
-      <c r="J5" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C6" t="n">
         <v>4116397</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F6" t="n">
         <v>31613</v>
       </c>
       <c r="G6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H6" t="n">
-        <v>569</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="C7" t="n">
         <v>22361251</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F7" t="n">
         <v>22583</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H7" t="n">
         <v>520</v>
       </c>
       <c r="I7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="J7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C8" t="n">
         <v>25732153</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F8" t="n">
         <v>137499</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H8" t="n">
         <v>494</v>
       </c>
       <c r="I8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J8" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C9" t="n">
         <v>17057873</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F9" t="n">
         <v>148313</v>
       </c>
       <c r="G9" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H9" t="n">
         <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="J9" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C10" t="n">
         <v>12127122</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F10" t="n">
-        <v>19816</v>
+        <v>19827</v>
       </c>
       <c r="G10" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H10" t="n">
         <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C11" t="n">
         <v>6003436</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F11" t="n">
         <v>22922</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H11" t="n">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2667,10 +2628,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G2" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -2690,10 +2651,10 @@
         <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G3" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -2713,10 +2674,10 @@
         <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G4" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -2736,10 +2697,10 @@
         <v>62</v>
       </c>
       <c r="F5" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G5" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
@@ -2759,10 +2720,10 @@
         <v>66</v>
       </c>
       <c r="F6" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7">
@@ -2805,10 +2766,10 @@
         <v>74</v>
       </c>
       <c r="F8" t="n">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="G8" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
@@ -2828,10 +2789,10 @@
         <v>78</v>
       </c>
       <c r="F9" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G9" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
@@ -2851,7 +2812,7 @@
         <v>81</v>
       </c>
       <c r="F10" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G10" t="n">
         <v>220</v>
@@ -2874,10 +2835,10 @@
         <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="G11" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
@@ -2897,10 +2858,10 @@
         <v>89</v>
       </c>
       <c r="F12" t="n">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G12" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13">
@@ -2920,10 +2881,10 @@
         <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G13" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14">
@@ -2943,7 +2904,7 @@
         <v>97</v>
       </c>
       <c r="F14" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G14" t="n">
         <v>286</v>
@@ -2966,10 +2927,10 @@
         <v>101</v>
       </c>
       <c r="F15" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G15" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
@@ -2992,7 +2953,7 @@
         <v>324</v>
       </c>
       <c r="G16" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17">
@@ -3012,10 +2973,10 @@
         <v>49</v>
       </c>
       <c r="F17" t="n">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="G17" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
@@ -3035,10 +2996,10 @@
         <v>112</v>
       </c>
       <c r="F18" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3449,49 +3410,49 @@
         <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3510,13 +3471,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -3533,12 +3494,12 @@
         <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3549,102 +3510,102 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
         <v>212</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
         <v>219</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>220</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>221</v>
-      </c>
-      <c r="D6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
         <v>223</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>224</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>228</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
         <v>231</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
         <v>235</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>236</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>237</v>
-      </c>
-      <c r="D10" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -3655,27 +3616,27 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
         <v>240</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
         <v>243</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>244</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3694,13 +3655,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -3711,97 +3672,97 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
         <v>249</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
         <v>252</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>253</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
         <v>256</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>257</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>258</v>
-      </c>
-      <c r="D4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
         <v>260</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>261</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>264</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>265</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>266</v>
-      </c>
-      <c r="D6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" t="s">
         <v>268</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>270</v>
-      </c>
-      <c r="D7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" t="s">
         <v>272</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>273</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3820,13 +3781,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -3834,44 +3795,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
-        <v>283</v>
-      </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
         <v>285</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>286</v>
-      </c>
-      <c r="C4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3890,13 +3851,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -3904,44 +3865,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
         <v>291</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>292</v>
-      </c>
-      <c r="C2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
         <v>295</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
         <v>299</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -3949,18 +3910,18 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
         <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3968,44 +3929,44 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
         <v>307</v>
-      </c>
-      <c r="C7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
         <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -4013,13 +3974,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
